--- a/logs/water_fertilizer.xlsx
+++ b/logs/water_fertilizer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrkel\Documents\git\2025_g34p\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EE5155-3E2A-4DB2-9BD5-B4D086B4D764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F008930-51FF-4F73-A56C-AA607E3432CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>date</t>
   </si>
@@ -36,16 +36,25 @@
     <t>planted all seeds, added 200 mL of water afer seeds were added</t>
   </si>
   <si>
-    <t>water/fert per pot (mL)</t>
-  </si>
-  <si>
     <t>full-strenght hoagland's fertilizer</t>
   </si>
   <si>
-    <t>maintenance, water</t>
-  </si>
-  <si>
     <t>pre-water pots, water</t>
+  </si>
+  <si>
+    <t>water_fertilizer_shuffle</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>fertilizer</t>
+  </si>
+  <si>
+    <t>amount_mL</t>
+  </si>
+  <si>
+    <t>maintenance</t>
   </si>
 </sst>
 </file>
@@ -89,10 +98,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,94 +383,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="62" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45847</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
         <v>800</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45848</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
         <v>200</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45851</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
         <v>200</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45852</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
         <v>100</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45854</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
         <v>200</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45856</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
         <v>200</v>
       </c>
-      <c r="C7" t="s">
-        <v>5</v>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>45860</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/logs/water_fertilizer.xlsx
+++ b/logs/water_fertilizer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrkel\Documents\git\2025_g34p\logs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monik\Documents\Git\2025_g34p\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F008930-51FF-4F73-A56C-AA607E3432CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D745CEB5-32D6-4A79-B27C-713E6BEC717A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>date</t>
   </si>
@@ -55,6 +55,24 @@
   </si>
   <si>
     <t>maintenance</t>
+  </si>
+  <si>
+    <t>added an extra 200 mL to DIAC since they looked very dry</t>
+  </si>
+  <si>
+    <t>shuffled</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>shuffled plants between tables, still grouped together by species</t>
+  </si>
+  <si>
+    <t>thinned</t>
+  </si>
+  <si>
+    <t>thinned all species, so only 1 individual per pot, except DIAC since the seedlings are very small</t>
   </si>
 </sst>
 </file>
@@ -383,21 +401,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="62" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="77.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -411,7 +429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45847</v>
       </c>
@@ -425,7 +443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45848</v>
       </c>
@@ -439,7 +457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45851</v>
       </c>
@@ -453,7 +471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>45852</v>
       </c>
@@ -467,7 +485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>45854</v>
       </c>
@@ -481,7 +499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>45856</v>
       </c>
@@ -495,7 +513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>45860</v>
       </c>
@@ -507,6 +525,76 @@
       </c>
       <c r="D8" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>45863</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>200</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>45863</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>200</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>45870</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>200</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>45870</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>45871</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/logs/water_fertilizer.xlsx
+++ b/logs/water_fertilizer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monik\Documents\Git\2025_g34p\logs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrkel\Documents\git\2025_g34p\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D745CEB5-32D6-4A79-B27C-713E6BEC717A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5404F55B-63ED-4DC0-970F-D0653F4BE86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
   <si>
     <t>date</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>thinned all species, so only 1 individual per pot, except DIAC since the seedlings are very small</t>
+  </si>
+  <si>
+    <t>added 50 mL of water to individuals that had been transplanted</t>
+  </si>
+  <si>
+    <t>individuals were shuffled into their blocks</t>
   </si>
 </sst>
 </file>
@@ -401,21 +407,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="4" width="77.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="77.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -429,7 +435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45847</v>
       </c>
@@ -443,7 +449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45848</v>
       </c>
@@ -457,7 +463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45851</v>
       </c>
@@ -471,7 +477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45852</v>
       </c>
@@ -485,7 +491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45854</v>
       </c>
@@ -499,7 +505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45856</v>
       </c>
@@ -513,7 +519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45860</v>
       </c>
@@ -527,7 +533,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45863</v>
       </c>
@@ -541,7 +547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45863</v>
       </c>
@@ -555,7 +561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45870</v>
       </c>
@@ -569,7 +575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45870</v>
       </c>
@@ -583,9 +589,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45871</v>
+        <v>45870</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -595,6 +601,48 @@
       </c>
       <c r="D13" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>45870</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>45873</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>200</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>45873</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/logs/water_fertilizer.xlsx
+++ b/logs/water_fertilizer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrkel\Documents\git\2025_g34p\logs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monik\Documents\git\2025_g34p\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5404F55B-63ED-4DC0-970F-D0653F4BE86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE22D8B9-2FEA-412A-A180-D7A1C1C3D83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
   <si>
     <t>date</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>individuals were shuffled into their blocks</t>
+  </si>
+  <si>
+    <t>watered</t>
+  </si>
+  <si>
+    <t>distributed out all species into their blocks, and began shade treatments</t>
   </si>
 </sst>
 </file>
@@ -407,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,6 +651,34 @@
         <v>17</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>45876</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>200</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>45876</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
